--- a/Excel/BattleLevelConfig@cs.xlsx
+++ b/Excel/BattleLevelConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>c</t>
   </si>
@@ -55,7 +55,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>1002,1002,1002</t>
+    <t>1002,1003,1002</t>
   </si>
   <si>
     <t>诅咒之地1</t>
@@ -64,58 +64,91 @@
     <t>1,10</t>
   </si>
   <si>
+    <t>1002,1003,1003</t>
+  </si>
+  <si>
     <t>诅咒之地2</t>
   </si>
   <si>
     <t>1,20</t>
   </si>
   <si>
+    <t>1002,1003,1004</t>
+  </si>
+  <si>
     <t>诅咒之地3</t>
   </si>
   <si>
     <t>2,30</t>
   </si>
   <si>
+    <t>1003,1003,1005</t>
+  </si>
+  <si>
     <t>诅咒之地4</t>
   </si>
   <si>
     <t>3,40</t>
   </si>
   <si>
+    <t>1004,1003,1006</t>
+  </si>
+  <si>
     <t>诅咒之地5</t>
   </si>
   <si>
     <t>4,50</t>
   </si>
   <si>
+    <t>1004,1005,1006</t>
+  </si>
+  <si>
     <t>诅咒之地6</t>
   </si>
   <si>
     <t>5,60</t>
   </si>
   <si>
+    <t>1005,1005,1007</t>
+  </si>
+  <si>
     <t>诅咒之地7</t>
   </si>
   <si>
     <t>6,70</t>
   </si>
   <si>
+    <t>1005,1006,1008</t>
+  </si>
+  <si>
     <t>诅咒之地8</t>
   </si>
   <si>
     <t>7,80</t>
   </si>
   <si>
+    <t>1004,1008,1009</t>
+  </si>
+  <si>
     <t>诅咒之地9</t>
   </si>
   <si>
     <t>8,90</t>
   </si>
   <si>
+    <t>1004,1007,1010</t>
+  </si>
+  <si>
     <t>诅咒之地10</t>
   </si>
   <si>
+    <t>1008,1008,1011</t>
+  </si>
+  <si>
     <t>诅咒之地11</t>
+  </si>
+  <si>
+    <t>1012,1008,1012</t>
   </si>
   <si>
     <t>诅咒之地12</t>
@@ -1115,14 +1148,15 @@
   <dimension ref="C2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7272727272727" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.3727272727273" style="2" customWidth="1"/>
     <col min="6" max="6" width="39.6363636363636" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
@@ -1206,14 +1240,14 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>1003</v>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1223,14 +1257,14 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>1004</v>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -1240,14 +1274,14 @@
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>1005</v>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -1257,14 +1291,14 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
-        <v>1006</v>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1274,14 +1308,14 @@
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
-        <v>1007</v>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -1291,14 +1325,14 @@
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
-        <v>1008</v>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1">
         <v>7</v>
@@ -1308,14 +1342,14 @@
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>1009</v>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1">
         <v>8</v>
@@ -1325,14 +1359,14 @@
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>1010</v>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1">
         <v>9</v>
@@ -1342,11 +1376,11 @@
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
-        <v>1011</v>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5">
         <v>9100</v>
@@ -1359,11 +1393,11 @@
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
-        <v>1012</v>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5">
         <v>10110</v>
@@ -1376,11 +1410,11 @@
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
-        <v>1013</v>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5">
         <v>11120</v>
